--- a/inst/extdata/testDatamerge1.xlsx
+++ b/inst/extdata/testDatamerge1.xlsx
@@ -95,55 +95,13 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD696B9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF938AD2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFB87D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD6C29A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF86DE8E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE0F090"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EDFE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="22">
     <border>
@@ -443,7 +401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -463,124 +421,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -905,7 +791,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -933,115 +819,115 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="8">
         <v>2</v>
       </c>
-      <c r="C2" s="39">
+      <c r="C2" s="9">
         <v>223</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="10">
         <v>109</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="13">
         <v>2</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="13">
         <v>1</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="14">
         <v>179</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="15">
         <v>202</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="13">
         <v>1</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="14">
         <v>223</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="15">
         <v>202</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="13">
         <v>2</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="14">
         <v>179</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="15">
         <v>109</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="13">
         <v>2</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25">
+      <c r="C7" s="14"/>
+      <c r="D7" s="15">
         <v>155</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="13">
         <v>2</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="14">
         <v>179</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="15">
         <v>155</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="16" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1049,7 +935,7 @@
       <c r="A9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="17">
         <v>2</v>
       </c>
       <c r="C9" s="14">
@@ -1063,19 +949,19 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="19">
         <v>2</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="20">
         <v>179</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="21">
         <v>109</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="22" t="s">
         <v>12</v>
       </c>
     </row>
